--- a/database/blog404_travel_destination.xlsx
+++ b/database/blog404_travel_destination.xlsx
@@ -2860,7 +2860,7 @@
     <t>Sahara Desert</t>
   </si>
   <si>
-    <t>听Born Free，读三毛。</t>
+    <t>听Born Free，读读哭泣的骆驼</t>
   </si>
   <si>
     <t>格里菲斯公园</t>
@@ -2956,7 +2956,7 @@
     <t>Manhattan</t>
   </si>
   <si>
-    <t>Gossip Here, 故事从这里开始。</t>
+    <t>Gossip Girl, 故事从这里开始。</t>
   </si>
   <si>
     <t>大都会艺术博物馆</t>
@@ -2971,7 +2971,7 @@
     <t>Machu Picchu</t>
   </si>
   <si>
-    <t>世界新七大奇迹，草泥马天堂</t>
+    <t>世界新七大奇迹，神兽天堂</t>
   </si>
   <si>
     <t>Kitamura Camera相机胶卷店</t>
@@ -3042,10 +3042,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3056,15 +3056,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3078,37 +3087,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3122,7 +3108,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3130,7 +3116,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3154,14 +3147,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3176,27 +3169,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3209,7 +3209,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3221,7 +3281,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3233,139 +3353,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3383,13 +3377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3400,32 +3400,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3443,6 +3417,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3500,6 +3489,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3508,10 +3508,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3520,133 +3520,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3979,9 +3979,9 @@
   <dimension ref="A1:K485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E228" sqref="E228"/>
+      <selection pane="bottomLeft" activeCell="E463" sqref="E463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="13.5"/>
